--- a/onetablesystem.xlsx
+++ b/onetablesystem.xlsx
@@ -5,21 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\DeskTopFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\economy\project\onetablesystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E608F3D-1CD9-4BE5-A822-D9E19EEDA69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F47EE-F2DE-44A2-8934-CA1FD107C664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ideaFrom" sheetId="7" r:id="rId1"/>
     <sheet name="root" sheetId="1" r:id="rId2"/>
-    <sheet name="s1" sheetId="2" r:id="rId3"/>
-    <sheet name="s2" sheetId="4" r:id="rId4"/>
-    <sheet name="b1" sheetId="3" r:id="rId5"/>
-    <sheet name="b2" sheetId="5" r:id="rId6"/>
-    <sheet name="b3" sheetId="6" r:id="rId7"/>
+    <sheet name="s1dataType" sheetId="4" r:id="rId3"/>
+    <sheet name="s2storeType" sheetId="2" r:id="rId4"/>
+    <sheet name="s3database" sheetId="8" r:id="rId5"/>
+    <sheet name="s4table" sheetId="10" r:id="rId6"/>
+    <sheet name="s5tableColumn" sheetId="11" r:id="rId7"/>
+    <sheet name="b1user" sheetId="3" r:id="rId8"/>
+    <sheet name="b2newType" sheetId="5" r:id="rId9"/>
+    <sheet name="b3news" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="109">
   <si>
     <t>row</t>
   </si>
@@ -270,11 +273,339 @@
     <t>sell5depart</t>
   </si>
   <si>
-    <t>we can save a table to one special table.
-So I have great idea,we can design any system only use one table.
+    <t>id</t>
+  </si>
+  <si>
+    <t>databaseId</t>
+  </si>
+  <si>
+    <t>databaseName</t>
+  </si>
+  <si>
+    <t>db1</t>
+  </si>
+  <si>
+    <t>tableId</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>newsType</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>tableColumnId</t>
+  </si>
+  <si>
+    <t>tableColumnName</t>
+  </si>
+  <si>
+    <t>tableColumnDataTypeId</t>
+  </si>
+  <si>
+    <t>we can save any different table data to one special table.
+So I have great idea,we can design and implement any system only use one table.
 Like news management system,database softwre,operating system etc.
+May be we can build the universe 
 By bruce vsked 20221104
 vsked@163.com</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <r>
+      <t>userName(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userPass(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>regDate(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>newsTypeName(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>parentType(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>newsTitle(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>newsAuther(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>addDateTime(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>addUserId(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>newsContent(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>s1dataType</t>
+  </si>
+  <si>
+    <t>s2storeType</t>
+  </si>
+  <si>
+    <t>s3database</t>
+  </si>
+  <si>
+    <t>s4table</t>
+  </si>
+  <si>
+    <t>s5tableColumn</t>
+  </si>
+  <si>
+    <t>b1user</t>
   </si>
 </sst>
 </file>
@@ -282,9 +613,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +629,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +649,102 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,23 +761,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000066"/>
+      <color rgb="FF660033"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -618,133 +1077,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABACACF6-57BA-456D-868E-E09068260822}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:Q20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="14">
         <v>7958</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="14">
         <v>550</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="14">
         <v>678</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <v>2753</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="14">
         <v>4520</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <v>3650</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>5556</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="15">
         <v>9058</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="15">
         <v>6825</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="15">
         <v>7831</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>6325</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>6584</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>2396</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>7223</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>1215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="16">
         <v>5176</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="16">
         <v>7158</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="16">
         <v>8546</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="16">
         <v>2689</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="16">
         <v>5258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="17">
         <v>9567</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="17">
         <v>2588</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="17">
         <v>8612</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="17">
         <v>4158</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="17">
         <v>4568</v>
       </c>
     </row>
@@ -760,361 +1222,361 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D12">
         <v>7958</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D13">
         <v>550</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D14">
         <v>678</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D15">
         <v>2753</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D16">
         <v>4520</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>3650</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
         <v>5556</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="15">
         <v>9058</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="15">
         <v>6825</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="15">
         <v>7831</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>6325</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>6584</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>2396</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>7223</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>1215</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="16">
         <v>5176</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="16">
         <v>7158</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="16">
         <v>8546</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="16">
         <v>2689</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="16">
         <v>5258</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="17">
         <v>9567</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="17">
         <v>2588</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="17">
         <v>8612</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="17">
         <v>4158</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="17">
         <v>4568</v>
       </c>
     </row>
@@ -1126,89 +1588,2241 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CAAA26-4C48-42FD-AE87-CD871BAE41D9}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44855.649895833332</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14">
+        <v>9</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14">
+        <v>9</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14">
+        <v>10</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>10</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14">
+        <v>11</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>11</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14">
+        <v>12</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>12</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14">
+        <v>13</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>13</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14">
+        <v>14</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14">
+        <v>14</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14">
+        <v>15</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14">
+        <v>15</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="14">
+        <v>2</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14">
+        <v>16</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14">
+        <v>16</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="14">
+        <v>2</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14">
+        <v>17</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14">
+        <v>17</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="14">
+        <v>3</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14">
+        <v>18</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14">
+        <v>18</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="14">
+        <v>3</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14">
+        <v>19</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14">
+        <v>19</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="14">
+        <v>3</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14">
+        <v>20</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14">
+        <v>20</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="14">
+        <v>3</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14">
+        <v>21</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14">
+        <v>21</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="14">
+        <v>3</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14">
+        <v>22</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14">
+        <v>22</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="14">
+        <v>3</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14">
+        <v>23</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>46</v>
+      </c>
+      <c r="B47" s="14">
+        <v>23</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="14">
+        <v>3</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14">
+        <v>24</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14">
+        <v>24</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="14">
+        <v>3</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>49</v>
+      </c>
+      <c r="B50" s="14">
+        <v>25</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>50</v>
+      </c>
+      <c r="B51" s="14">
+        <v>25</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="14">
+        <v>3</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14">
+        <v>26</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14">
+        <v>26</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14">
+        <v>3</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>2</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>3</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
+        <v>56</v>
+      </c>
+      <c r="B57" s="19">
+        <v>1</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>57</v>
+      </c>
+      <c r="B58" s="20">
+        <v>1</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="20">
+        <v>58</v>
+      </c>
+      <c r="B59" s="20">
+        <v>1</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="20">
+        <v>1</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>59</v>
+      </c>
+      <c r="B60" s="20">
+        <v>2</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>60</v>
+      </c>
+      <c r="B61" s="20">
+        <v>2</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="20">
+        <v>1</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>61</v>
+      </c>
+      <c r="B62" s="20">
+        <v>3</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="20">
+        <v>62</v>
+      </c>
+      <c r="B63" s="20">
+        <v>3</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="20">
+        <v>1</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>63</v>
+      </c>
+      <c r="B64" s="21">
+        <v>1</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="21">
+        <v>1</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
+        <v>64</v>
+      </c>
+      <c r="B65" s="21">
+        <v>1</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
+        <v>65</v>
+      </c>
+      <c r="B66" s="21">
+        <v>1</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="21">
+        <v>7</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
+        <v>66</v>
+      </c>
+      <c r="B67" s="21">
+        <v>2</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="21">
+        <v>1</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="21">
+        <v>67</v>
+      </c>
+      <c r="B68" s="21">
+        <v>2</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="21">
+        <v>68</v>
+      </c>
+      <c r="B69" s="21">
+        <v>2</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="21">
+        <v>18</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="21">
+        <v>69</v>
+      </c>
+      <c r="B70" s="21">
+        <v>3</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="21">
+        <v>1</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="21">
+        <v>70</v>
+      </c>
+      <c r="B71" s="21">
+        <v>3</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
+        <v>71</v>
+      </c>
+      <c r="B72" s="21">
+        <v>3</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="21">
+        <v>18</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="21">
+        <v>72</v>
+      </c>
+      <c r="B73" s="21">
+        <v>4</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="21">
+        <v>1</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="21">
+        <v>73</v>
+      </c>
+      <c r="B74" s="21">
+        <v>4</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
+        <v>74</v>
+      </c>
+      <c r="B75" s="21">
+        <v>4</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="21">
+        <v>12</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="21">
+        <v>75</v>
+      </c>
+      <c r="B76" s="21">
+        <v>5</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="21">
+        <v>2</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>76</v>
+      </c>
+      <c r="B77" s="21">
+        <v>5</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
+        <v>77</v>
+      </c>
+      <c r="B78" s="21">
+        <v>5</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="21">
+        <v>7</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
+        <v>78</v>
+      </c>
+      <c r="B79" s="21">
+        <v>6</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="21">
+        <v>2</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="21">
+        <v>79</v>
+      </c>
+      <c r="B80" s="21">
+        <v>6</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="21">
+        <v>80</v>
+      </c>
+      <c r="B81" s="21">
+        <v>6</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="21">
+        <v>18</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="21">
+        <v>81</v>
+      </c>
+      <c r="B82" s="21">
+        <v>7</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="21">
+        <v>2</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="21">
+        <v>82</v>
+      </c>
+      <c r="B83" s="21">
+        <v>7</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="21">
+        <v>83</v>
+      </c>
+      <c r="B84" s="21">
+        <v>7</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="21">
+        <v>7</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="21">
+        <v>84</v>
+      </c>
+      <c r="B85" s="21">
+        <v>8</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="21">
+        <v>3</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="21">
+        <v>85</v>
+      </c>
+      <c r="B86" s="21">
+        <v>8</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="21">
+        <v>86</v>
+      </c>
+      <c r="B87" s="21">
+        <v>8</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="21">
+        <v>7</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="21">
+        <v>87</v>
+      </c>
+      <c r="B88" s="21">
+        <v>9</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="21">
+        <v>3</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="21">
+        <v>88</v>
+      </c>
+      <c r="B89" s="21">
+        <v>9</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="21">
+        <v>89</v>
+      </c>
+      <c r="B90" s="21">
+        <v>9</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="21">
+        <v>18</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="21">
+        <v>90</v>
+      </c>
+      <c r="B91" s="21">
+        <v>10</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="21">
+        <v>3</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="21">
+        <v>91</v>
+      </c>
+      <c r="B92" s="21">
+        <v>10</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
+        <v>92</v>
+      </c>
+      <c r="B93" s="21">
+        <v>10</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="21">
+        <v>18</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="21">
+        <v>93</v>
+      </c>
+      <c r="B94" s="21">
+        <v>11</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="21">
+        <v>3</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
+        <v>94</v>
+      </c>
+      <c r="B95" s="21">
+        <v>11</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="21">
+        <v>95</v>
+      </c>
+      <c r="B96" s="21">
+        <v>11</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="21">
+        <v>15</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="21">
+        <v>96</v>
+      </c>
+      <c r="B97" s="21">
+        <v>12</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="21">
+        <v>3</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="21">
+        <v>97</v>
+      </c>
+      <c r="B98" s="21">
+        <v>12</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
+        <v>98</v>
+      </c>
+      <c r="B99" s="21">
+        <v>12</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="21">
+        <v>7</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
+        <v>99</v>
+      </c>
+      <c r="B100" s="21">
+        <v>13</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="21">
+        <v>3</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="21">
+        <v>100</v>
+      </c>
+      <c r="B101" s="21">
+        <v>13</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="21">
+        <v>101</v>
+      </c>
+      <c r="B102" s="21">
+        <v>13</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" s="21">
+        <v>22</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="21">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="21">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="21">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1">
+        <v>44866</v>
+      </c>
+      <c r="E105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="21">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="21">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="21">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="21">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="21">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="21">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="21">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="21">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="21">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="21">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="21">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="21">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="21">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="21">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="21">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="21">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="21">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="21">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="21">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="21">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="21">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E340161E-0613-4AA1-965D-077A65B880FB}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A15CC-3585-469B-BE05-BFDE7E40A436}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A15CC-3585-469B-BE05-BFDE7E40A436}">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,300 +3833,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C26" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C27">
-        <v>3</v>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E340161E-0613-4AA1-965D-077A65B880FB}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +4205,365 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50887885-869D-452F-9B00-17EC7949C9E8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22573DD6-DECB-46D5-900F-AFF30BCA333C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B41C1C-F6AF-474F-8C21-6EEE978480E5}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B49D1D-7C37-4EDE-87E4-4740DD25808D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1538,19 +4571,28 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,60 +4713,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3A937D-30AC-4519-A529-B398B3ADDEF9}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1732,146 +4774,49 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CAAA26-4C48-42FD-AE87-CD871BAE41D9}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44855.649895833332</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/onetablesystem.xlsx
+++ b/onetablesystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\economy\project\onetablesystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EE3C3F-DCCA-445A-B3B7-198C01DF25C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895A623E-FB45-4486-8666-27DD417E3E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="745" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ideaFrom" sheetId="7" r:id="rId1"/>
@@ -714,8 +714,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -907,7 +908,6 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -941,6 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,127 +1244,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>7958</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>550</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>678</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>2753</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>4520</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>3650</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>5556</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>9058</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>6825</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>7831</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>6325</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>6584</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2396</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>7223</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>1215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>5176</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>7158</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>8546</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>2689</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>5258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>9567</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>2588</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>8612</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>4158</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>4568</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
@@ -1374,361 +1375,361 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D12">
         <v>7958</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D13">
         <v>550</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D14">
         <v>678</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D15">
         <v>2753</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D16">
         <v>4520</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>3650</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>5556</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>9058</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>6825</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>7831</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>6325</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>6584</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>2396</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>7223</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>1215</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>5176</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>7158</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>8546</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>2689</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>5258</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <v>9567</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>2588</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>8612</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>4158</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>4568</v>
       </c>
     </row>
@@ -1745,7 +1746,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1818,7 @@
       <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>44855.649895833332</v>
       </c>
       <c r="F3">
@@ -1840,7 +1841,7 @@
       <c r="D4" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>44846.473043981481</v>
       </c>
       <c r="F4">
@@ -1863,7 +1864,7 @@
       <c r="D5" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>44880.846076388887</v>
       </c>
       <c r="F5">
@@ -1886,7 +1887,7 @@
       <c r="D6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>44915.828148148146</v>
       </c>
       <c r="F6">
@@ -1909,7 +1910,7 @@
       <c r="D7" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>44806.343761574077</v>
       </c>
       <c r="F7">
@@ -1932,7 +1933,7 @@
       <c r="D8" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>44730.087685185186</v>
       </c>
       <c r="F8">
@@ -1955,7 +1956,7 @@
       <c r="D9" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>44807.343761574077</v>
       </c>
       <c r="F9">
@@ -1978,7 +1979,7 @@
       <c r="D10" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>44808.343761574077</v>
       </c>
       <c r="F10">
@@ -2001,7 +2002,7 @@
       <c r="D11" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>44809.343761574077</v>
       </c>
       <c r="F11">
@@ -2024,7 +2025,7 @@
       <c r="D12" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>44810.343761574077</v>
       </c>
       <c r="F12">
@@ -2044,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,3368 +2058,3368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>0</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>0</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="18">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>5</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>5</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>6</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>6</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>7</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>7</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>8</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>8</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>9</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>9</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>10</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="19">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>11</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>11</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="19">
-        <v>1</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>12</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>12</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>13</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>13</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>2</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>14</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>14</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>2</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>15</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>15</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>2</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>16</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="18">
         <v>16</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>2</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>17</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="18">
         <v>17</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="19">
-        <v>3</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="18">
+        <v>3</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="18">
         <v>18</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="18">
         <v>18</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="19">
-        <v>3</v>
-      </c>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="18">
+        <v>3</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="18">
         <v>19</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="18">
         <v>19</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="19">
-        <v>3</v>
-      </c>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="18">
+        <v>3</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="18">
         <v>20</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="18">
         <v>20</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="19">
-        <v>3</v>
-      </c>
-      <c r="E41" s="19" t="s">
+      <c r="D41" s="18">
+        <v>3</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="18">
         <v>21</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="18">
         <v>21</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="19">
-        <v>3</v>
-      </c>
-      <c r="E43" s="19" t="s">
+      <c r="D43" s="18">
+        <v>3</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="18">
         <v>22</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="18">
         <v>22</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="19">
-        <v>3</v>
-      </c>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="18">
+        <v>3</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="18">
         <v>23</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="18">
         <v>23</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="19">
-        <v>3</v>
-      </c>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="18">
+        <v>3</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="18">
         <v>24</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="18">
         <v>24</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="19">
-        <v>3</v>
-      </c>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="18">
+        <v>3</v>
+      </c>
+      <c r="E49" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="18">
         <v>25</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="18">
         <v>25</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="19">
-        <v>3</v>
-      </c>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="18">
+        <v>3</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="18">
         <v>26</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="18">
         <v>26</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="19">
-        <v>3</v>
-      </c>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="18">
+        <v>3</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
+      <c r="A54" s="19">
         <v>53</v>
       </c>
-      <c r="B54" s="20">
-        <v>1</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="20" t="s">
+      <c r="B54" s="19">
+        <v>1</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
+      <c r="A55" s="19">
         <v>54</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>2</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="20" t="s">
+      <c r="C55" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
+      <c r="A56" s="19">
         <v>55</v>
       </c>
-      <c r="B56" s="20">
-        <v>3</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="20" t="s">
+      <c r="B56" s="19">
+        <v>3</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>56</v>
       </c>
-      <c r="B57" s="21">
-        <v>1</v>
-      </c>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="20">
+        <v>1</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+      <c r="A58" s="21">
         <v>57</v>
       </c>
-      <c r="B58" s="22">
-        <v>1</v>
-      </c>
-      <c r="C58" s="22" t="s">
+      <c r="B58" s="21">
+        <v>1</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="21">
+        <v>58</v>
+      </c>
+      <c r="B59" s="21">
+        <v>1</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="21">
+        <v>1</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="21">
+        <v>59</v>
+      </c>
+      <c r="B60" s="21">
+        <v>2</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <v>60</v>
+      </c>
+      <c r="B61" s="21">
+        <v>2</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="21">
+        <v>1</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="21">
+        <v>61</v>
+      </c>
+      <c r="B62" s="21">
+        <v>3</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="21">
+        <v>62</v>
+      </c>
+      <c r="B63" s="21">
+        <v>3</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="21">
+        <v>1</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>63</v>
+      </c>
+      <c r="B64" s="22">
+        <v>1</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="22">
+        <v>1</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <v>64</v>
+      </c>
+      <c r="B65" s="22">
+        <v>1</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>65</v>
+      </c>
+      <c r="B66" s="22">
+        <v>1</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="22">
+        <v>7</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
+        <v>66</v>
+      </c>
+      <c r="B67" s="22">
+        <v>2</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="22">
+        <v>1</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="22">
+        <v>67</v>
+      </c>
+      <c r="B68" s="22">
+        <v>2</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="22">
+        <v>68</v>
+      </c>
+      <c r="B69" s="22">
+        <v>2</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="22">
+        <v>18</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="22">
+        <v>69</v>
+      </c>
+      <c r="B70" s="22">
+        <v>3</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="22">
+        <v>1</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="22">
+        <v>70</v>
+      </c>
+      <c r="B71" s="22">
+        <v>3</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="22">
+        <v>71</v>
+      </c>
+      <c r="B72" s="22">
+        <v>3</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="22">
+        <v>18</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="22">
+        <v>72</v>
+      </c>
+      <c r="B73" s="22">
+        <v>4</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="22">
+        <v>1</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="22">
+        <v>73</v>
+      </c>
+      <c r="B74" s="22">
+        <v>4</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="22">
+        <v>74</v>
+      </c>
+      <c r="B75" s="22">
+        <v>4</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="22">
+        <v>12</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="22">
+        <v>75</v>
+      </c>
+      <c r="B76" s="22">
+        <v>5</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="22">
+        <v>2</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="22">
+        <v>76</v>
+      </c>
+      <c r="B77" s="22">
+        <v>5</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="22">
+        <v>77</v>
+      </c>
+      <c r="B78" s="22">
+        <v>5</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="22">
+        <v>7</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="22">
+        <v>78</v>
+      </c>
+      <c r="B79" s="22">
+        <v>6</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="22">
+        <v>2</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="22">
+        <v>79</v>
+      </c>
+      <c r="B80" s="22">
+        <v>6</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="22">
+        <v>80</v>
+      </c>
+      <c r="B81" s="22">
+        <v>6</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="22">
+        <v>18</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="22">
+        <v>81</v>
+      </c>
+      <c r="B82" s="22">
+        <v>7</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="22">
+        <v>2</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="22">
+        <v>82</v>
+      </c>
+      <c r="B83" s="22">
+        <v>7</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="22">
+        <v>83</v>
+      </c>
+      <c r="B84" s="22">
+        <v>7</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="22">
+        <v>7</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="22">
         <v>84</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="B85" s="22">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" s="22">
+        <v>3</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="22">
+        <v>85</v>
+      </c>
+      <c r="B86" s="22">
+        <v>8</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="22">
+        <v>86</v>
+      </c>
+      <c r="B87" s="22">
+        <v>8</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="22">
+        <v>7</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="22">
+        <v>87</v>
+      </c>
+      <c r="B88" s="22">
+        <v>9</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" s="22">
+        <v>3</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="22">
+        <v>88</v>
+      </c>
+      <c r="B89" s="22">
+        <v>9</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="22">
+        <v>89</v>
+      </c>
+      <c r="B90" s="22">
+        <v>9</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="22">
+        <v>18</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="22">
+        <v>90</v>
+      </c>
+      <c r="B91" s="22">
+        <v>10</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" s="22">
+        <v>3</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="22">
+        <v>91</v>
+      </c>
+      <c r="B92" s="22">
+        <v>10</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="22">
+        <v>92</v>
+      </c>
+      <c r="B93" s="22">
+        <v>10</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="22">
+        <v>18</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="22">
+        <v>93</v>
+      </c>
+      <c r="B94" s="22">
+        <v>11</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="22">
+        <v>3</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="22">
+        <v>94</v>
+      </c>
+      <c r="B95" s="22">
+        <v>11</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="22">
+        <v>95</v>
+      </c>
+      <c r="B96" s="22">
+        <v>11</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="22">
+        <v>15</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="22">
+        <v>96</v>
+      </c>
+      <c r="B97" s="22">
+        <v>12</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="22">
+        <v>3</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="22">
+        <v>97</v>
+      </c>
+      <c r="B98" s="22">
+        <v>12</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="22">
+        <v>98</v>
+      </c>
+      <c r="B99" s="22">
+        <v>12</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" s="22">
+        <v>7</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="22">
+        <v>99</v>
+      </c>
+      <c r="B100" s="22">
+        <v>13</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="22">
+        <v>3</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="22">
+        <v>100</v>
+      </c>
+      <c r="B101" s="22">
+        <v>13</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="22">
+        <v>101</v>
+      </c>
+      <c r="B102" s="22">
+        <v>13</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" s="22">
+        <v>22</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="23">
+        <v>102</v>
+      </c>
+      <c r="B103" s="23">
+        <v>1</v>
+      </c>
+      <c r="C103" s="23">
+        <v>2</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="23">
+        <v>103</v>
+      </c>
+      <c r="B104" s="23">
+        <v>1</v>
+      </c>
+      <c r="C104" s="23">
+        <v>3</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="23">
+        <v>104</v>
+      </c>
+      <c r="B105" s="23">
+        <v>1</v>
+      </c>
+      <c r="C105" s="23">
+        <v>4</v>
+      </c>
+      <c r="D105" s="24">
+        <v>44866</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="23">
         <v>105</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
-        <v>58</v>
-      </c>
-      <c r="B59" s="22">
-        <v>1</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="22">
-        <v>1</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
-        <v>59</v>
-      </c>
-      <c r="B60" s="22">
+      <c r="B106" s="23">
         <v>2</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
-        <v>60</v>
-      </c>
-      <c r="B61" s="22">
+      <c r="C106" s="23">
         <v>2</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="22">
-        <v>1</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
-        <v>61</v>
-      </c>
-      <c r="B62" s="22">
-        <v>3</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
-        <v>62</v>
-      </c>
-      <c r="B63" s="22">
-        <v>3</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="22">
-        <v>1</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
-        <v>63</v>
-      </c>
-      <c r="B64" s="23">
-        <v>1</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="23">
-        <v>1</v>
-      </c>
-      <c r="E64" s="23" t="s">
+      <c r="D106" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="23">
         <v>106</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
-        <v>64</v>
-      </c>
-      <c r="B65" s="23">
-        <v>1</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="23" t="s">
+      <c r="B107" s="23">
+        <v>2</v>
+      </c>
+      <c r="C107" s="23">
+        <v>3</v>
+      </c>
+      <c r="D107" s="23">
+        <v>12345</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="23">
+        <v>107</v>
+      </c>
+      <c r="B108" s="23">
+        <v>2</v>
+      </c>
+      <c r="C108" s="23">
+        <v>4</v>
+      </c>
+      <c r="D108" s="24">
+        <v>44855</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="23">
+        <v>108</v>
+      </c>
+      <c r="B109" s="23">
+        <v>3</v>
+      </c>
+      <c r="C109" s="23">
+        <v>2</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="23">
+        <v>109</v>
+      </c>
+      <c r="B110" s="23">
+        <v>3</v>
+      </c>
+      <c r="C110" s="23">
+        <v>3</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="23">
+        <v>110</v>
+      </c>
+      <c r="B111" s="23">
+        <v>3</v>
+      </c>
+      <c r="C111" s="23">
+        <v>4</v>
+      </c>
+      <c r="D111" s="24">
+        <v>44867</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="23">
+        <v>111</v>
+      </c>
+      <c r="B112" s="23">
+        <v>4</v>
+      </c>
+      <c r="C112" s="23">
+        <v>2</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="23">
+        <v>112</v>
+      </c>
+      <c r="B113" s="23">
+        <v>4</v>
+      </c>
+      <c r="C113" s="23">
+        <v>3</v>
+      </c>
+      <c r="D113" s="23">
+        <v>99999</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="23">
+        <v>113</v>
+      </c>
+      <c r="B114" s="23">
+        <v>4</v>
+      </c>
+      <c r="C114" s="23">
+        <v>4</v>
+      </c>
+      <c r="D114" s="24">
+        <v>44852</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="23">
+        <v>114</v>
+      </c>
+      <c r="B115" s="23">
         <v>5</v>
       </c>
-      <c r="E65" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
-        <v>65</v>
-      </c>
-      <c r="B66" s="23">
-        <v>1</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="23">
+      <c r="C115" s="23">
+        <v>2</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="23">
+        <v>115</v>
+      </c>
+      <c r="B116" s="23">
+        <v>5</v>
+      </c>
+      <c r="C116" s="23">
+        <v>3</v>
+      </c>
+      <c r="D116" s="23">
+        <v>33333</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="23">
+        <v>116</v>
+      </c>
+      <c r="B117" s="23">
+        <v>5</v>
+      </c>
+      <c r="C117" s="23">
+        <v>4</v>
+      </c>
+      <c r="D117" s="24">
+        <v>44853</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="23">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23">
+        <v>6</v>
+      </c>
+      <c r="C118" s="23">
+        <v>2</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="23">
+        <v>118</v>
+      </c>
+      <c r="B119" s="23">
+        <v>6</v>
+      </c>
+      <c r="C119" s="23">
+        <v>3</v>
+      </c>
+      <c r="D119" s="23">
+        <v>44444</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="23">
+        <v>119</v>
+      </c>
+      <c r="B120" s="23">
+        <v>6</v>
+      </c>
+      <c r="C120" s="23">
+        <v>4</v>
+      </c>
+      <c r="D120" s="24">
+        <v>44854</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="23">
+        <v>120</v>
+      </c>
+      <c r="B121" s="23">
         <v>7</v>
       </c>
-      <c r="E66" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
-        <v>66</v>
-      </c>
-      <c r="B67" s="23">
+      <c r="C121" s="23">
         <v>2</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="23">
-        <v>1</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
-        <v>67</v>
-      </c>
-      <c r="B68" s="23">
+      <c r="D121" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="23">
+        <v>121</v>
+      </c>
+      <c r="B122" s="23">
+        <v>7</v>
+      </c>
+      <c r="C122" s="23">
+        <v>3</v>
+      </c>
+      <c r="D122" s="23">
+        <v>55555</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="23">
+        <v>122</v>
+      </c>
+      <c r="B123" s="23">
+        <v>7</v>
+      </c>
+      <c r="C123" s="23">
+        <v>4</v>
+      </c>
+      <c r="D123" s="24">
+        <v>44855</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="23">
+        <v>123</v>
+      </c>
+      <c r="B124" s="23">
+        <v>8</v>
+      </c>
+      <c r="C124" s="23">
         <v>2</v>
       </c>
-      <c r="C68" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" s="23" t="s">
+      <c r="D124" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="23">
+        <v>124</v>
+      </c>
+      <c r="B125" s="23">
+        <v>8</v>
+      </c>
+      <c r="C125" s="23">
+        <v>3</v>
+      </c>
+      <c r="D125" s="23">
+        <v>66666</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="23">
+        <v>125</v>
+      </c>
+      <c r="B126" s="23">
+        <v>8</v>
+      </c>
+      <c r="C126" s="23">
+        <v>4</v>
+      </c>
+      <c r="D126" s="24">
+        <v>44856</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="25">
+        <v>126</v>
+      </c>
+      <c r="B127" s="25">
+        <v>1</v>
+      </c>
+      <c r="C127" s="25">
         <v>6</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
-        <v>68</v>
-      </c>
-      <c r="B69" s="23">
+      <c r="D127" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="25">
+        <v>127</v>
+      </c>
+      <c r="B128" s="25">
+        <v>1</v>
+      </c>
+      <c r="C128" s="25">
+        <v>7</v>
+      </c>
+      <c r="D128" s="25">
+        <v>0</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="25">
+        <v>128</v>
+      </c>
+      <c r="B129" s="25">
         <v>2</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="23">
-        <v>18</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
-        <v>69</v>
-      </c>
-      <c r="B70" s="23">
-        <v>3</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="23">
-        <v>1</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
-        <v>70</v>
-      </c>
-      <c r="B71" s="23">
-        <v>3</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="23" t="s">
+      <c r="C129" s="25">
+        <v>6</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="25">
+        <v>129</v>
+      </c>
+      <c r="B130" s="25">
+        <v>2</v>
+      </c>
+      <c r="C130" s="25">
         <v>7</v>
       </c>
-      <c r="E71" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
-        <v>71</v>
-      </c>
-      <c r="B72" s="23">
-        <v>3</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="23">
-        <v>18</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
-        <v>72</v>
-      </c>
-      <c r="B73" s="23">
+      <c r="D130" s="25">
+        <v>1</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="25">
+        <v>130</v>
+      </c>
+      <c r="B131" s="25">
+        <v>3</v>
+      </c>
+      <c r="C131" s="25">
+        <v>6</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="25">
+        <v>131</v>
+      </c>
+      <c r="B132" s="25">
+        <v>3</v>
+      </c>
+      <c r="C132" s="25">
+        <v>7</v>
+      </c>
+      <c r="D132" s="25">
+        <v>1</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="25">
+        <v>132</v>
+      </c>
+      <c r="B133" s="25">
         <v>4</v>
       </c>
-      <c r="C73" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" s="23">
-        <v>1</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
-        <v>73</v>
-      </c>
-      <c r="B74" s="23">
+      <c r="C133" s="25">
+        <v>6</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="25">
+        <v>133</v>
+      </c>
+      <c r="B134" s="25">
         <v>4</v>
       </c>
-      <c r="C74" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="23" t="s">
+      <c r="C134" s="25">
+        <v>7</v>
+      </c>
+      <c r="D134" s="25">
+        <v>2</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="25">
+        <v>134</v>
+      </c>
+      <c r="B135" s="25">
+        <v>5</v>
+      </c>
+      <c r="C135" s="25">
+        <v>6</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="25">
+        <v>135</v>
+      </c>
+      <c r="B136" s="25">
+        <v>5</v>
+      </c>
+      <c r="C136" s="25">
+        <v>7</v>
+      </c>
+      <c r="D136" s="25">
+        <v>4</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="25">
+        <v>136</v>
+      </c>
+      <c r="B137" s="25">
+        <v>6</v>
+      </c>
+      <c r="C137" s="25">
+        <v>6</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="25">
+        <v>137</v>
+      </c>
+      <c r="B138" s="25">
+        <v>6</v>
+      </c>
+      <c r="C138" s="25">
+        <v>7</v>
+      </c>
+      <c r="D138" s="25">
+        <v>4</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="26">
+        <v>138</v>
+      </c>
+      <c r="B139" s="26">
+        <v>1</v>
+      </c>
+      <c r="C139" s="26">
+        <v>5</v>
+      </c>
+      <c r="D139" s="26">
+        <v>1</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="26">
+        <v>139</v>
+      </c>
+      <c r="B140" s="26">
+        <v>1</v>
+      </c>
+      <c r="C140" s="26">
+        <v>9</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="26">
+        <v>140</v>
+      </c>
+      <c r="B141" s="26">
+        <v>1</v>
+      </c>
+      <c r="C141" s="26">
+        <v>10</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="26">
+        <v>141</v>
+      </c>
+      <c r="B142" s="26">
+        <v>1</v>
+      </c>
+      <c r="C142" s="26">
+        <v>11</v>
+      </c>
+      <c r="D142" s="27">
+        <v>44855.649895833332</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="26">
+        <v>142</v>
+      </c>
+      <c r="B143" s="26">
+        <v>1</v>
+      </c>
+      <c r="C143" s="26">
+        <v>12</v>
+      </c>
+      <c r="D143" s="26">
+        <v>2</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="26">
+        <v>143</v>
+      </c>
+      <c r="B144" s="26">
+        <v>1</v>
+      </c>
+      <c r="C144" s="26">
+        <v>13</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="26">
+        <v>144</v>
+      </c>
+      <c r="B145" s="26">
+        <v>2</v>
+      </c>
+      <c r="C145" s="26">
+        <v>5</v>
+      </c>
+      <c r="D145" s="26">
+        <v>2</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="26">
+        <v>145</v>
+      </c>
+      <c r="B146" s="26">
+        <v>2</v>
+      </c>
+      <c r="C146" s="26">
+        <v>9</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="26">
+        <v>146</v>
+      </c>
+      <c r="B147" s="26">
+        <v>2</v>
+      </c>
+      <c r="C147" s="26">
+        <v>10</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="26">
+        <v>147</v>
+      </c>
+      <c r="B148" s="26">
+        <v>2</v>
+      </c>
+      <c r="C148" s="26">
+        <v>11</v>
+      </c>
+      <c r="D148" s="27">
+        <v>44846.473043981481</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="26">
+        <v>148</v>
+      </c>
+      <c r="B149" s="26">
+        <v>2</v>
+      </c>
+      <c r="C149" s="26">
+        <v>12</v>
+      </c>
+      <c r="D149" s="26">
+        <v>4</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="26">
+        <v>149</v>
+      </c>
+      <c r="B150" s="26">
+        <v>2</v>
+      </c>
+      <c r="C150" s="26">
+        <v>13</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="26">
+        <v>150</v>
+      </c>
+      <c r="B151" s="26">
+        <v>3</v>
+      </c>
+      <c r="C151" s="26">
+        <v>5</v>
+      </c>
+      <c r="D151" s="26">
+        <v>3</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="26">
+        <v>151</v>
+      </c>
+      <c r="B152" s="26">
+        <v>3</v>
+      </c>
+      <c r="C152" s="26">
+        <v>9</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="26">
+        <v>152</v>
+      </c>
+      <c r="B153" s="26">
+        <v>3</v>
+      </c>
+      <c r="C153" s="26">
+        <v>10</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="26">
+        <v>153</v>
+      </c>
+      <c r="B154" s="26">
+        <v>3</v>
+      </c>
+      <c r="C154" s="26">
+        <v>11</v>
+      </c>
+      <c r="D154" s="27">
+        <v>44880.846076388887</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="26">
+        <v>154</v>
+      </c>
+      <c r="B155" s="26">
+        <v>3</v>
+      </c>
+      <c r="C155" s="26">
+        <v>12</v>
+      </c>
+      <c r="D155" s="26">
+        <v>5</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="26">
+        <v>155</v>
+      </c>
+      <c r="B156" s="26">
+        <v>3</v>
+      </c>
+      <c r="C156" s="26">
+        <v>13</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="26">
+        <v>156</v>
+      </c>
+      <c r="B157" s="26">
+        <v>4</v>
+      </c>
+      <c r="C157" s="26">
+        <v>5</v>
+      </c>
+      <c r="D157" s="26">
+        <v>4</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="26">
+        <v>157</v>
+      </c>
+      <c r="B158" s="26">
+        <v>4</v>
+      </c>
+      <c r="C158" s="26">
+        <v>9</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="26">
+        <v>158</v>
+      </c>
+      <c r="B159" s="26">
+        <v>4</v>
+      </c>
+      <c r="C159" s="26">
+        <v>10</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="26">
+        <v>159</v>
+      </c>
+      <c r="B160" s="26">
+        <v>4</v>
+      </c>
+      <c r="C160" s="26">
+        <v>11</v>
+      </c>
+      <c r="D160" s="27">
+        <v>44915.828148148146</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="26">
+        <v>160</v>
+      </c>
+      <c r="B161" s="26">
+        <v>4</v>
+      </c>
+      <c r="C161" s="26">
+        <v>12</v>
+      </c>
+      <c r="D161" s="26">
+        <v>6</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="26">
+        <v>161</v>
+      </c>
+      <c r="B162" s="26">
+        <v>4</v>
+      </c>
+      <c r="C162" s="26">
+        <v>13</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="26">
+        <v>162</v>
+      </c>
+      <c r="B163" s="26">
+        <v>5</v>
+      </c>
+      <c r="C163" s="26">
+        <v>5</v>
+      </c>
+      <c r="D163" s="26">
+        <v>5</v>
+      </c>
+      <c r="E163" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="26">
+        <v>163</v>
+      </c>
+      <c r="B164" s="26">
+        <v>5</v>
+      </c>
+      <c r="C164" s="26">
+        <v>9</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E164" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="26">
+        <v>164</v>
+      </c>
+      <c r="B165" s="26">
+        <v>5</v>
+      </c>
+      <c r="C165" s="26">
+        <v>10</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E165" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="26">
+        <v>165</v>
+      </c>
+      <c r="B166" s="26">
+        <v>5</v>
+      </c>
+      <c r="C166" s="26">
+        <v>11</v>
+      </c>
+      <c r="D166" s="27">
+        <v>44806.343761574077</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="26">
+        <v>166</v>
+      </c>
+      <c r="B167" s="26">
+        <v>5</v>
+      </c>
+      <c r="C167" s="26">
+        <v>12</v>
+      </c>
+      <c r="D167" s="26">
+        <v>7</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="26">
+        <v>167</v>
+      </c>
+      <c r="B168" s="26">
+        <v>5</v>
+      </c>
+      <c r="C168" s="26">
+        <v>13</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="26">
+        <v>168</v>
+      </c>
+      <c r="B169" s="26">
+        <v>6</v>
+      </c>
+      <c r="C169" s="26">
+        <v>5</v>
+      </c>
+      <c r="D169" s="26">
+        <v>6</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="26">
+        <v>169</v>
+      </c>
+      <c r="B170" s="26">
+        <v>6</v>
+      </c>
+      <c r="C170" s="26">
+        <v>9</v>
+      </c>
+      <c r="D170" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="26">
+        <v>170</v>
+      </c>
+      <c r="B171" s="26">
+        <v>6</v>
+      </c>
+      <c r="C171" s="26">
+        <v>10</v>
+      </c>
+      <c r="D171" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="26">
+        <v>171</v>
+      </c>
+      <c r="B172" s="26">
+        <v>6</v>
+      </c>
+      <c r="C172" s="26">
+        <v>11</v>
+      </c>
+      <c r="D172" s="27">
+        <v>44730.087685185186</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="26">
+        <v>172</v>
+      </c>
+      <c r="B173" s="26">
+        <v>6</v>
+      </c>
+      <c r="C173" s="26">
+        <v>12</v>
+      </c>
+      <c r="D173" s="26">
         <v>8</v>
       </c>
-      <c r="E74" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
-        <v>74</v>
-      </c>
-      <c r="B75" s="23">
-        <v>4</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="23">
+      <c r="E173" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="26">
+        <v>173</v>
+      </c>
+      <c r="B174" s="26">
+        <v>6</v>
+      </c>
+      <c r="C174" s="26">
+        <v>13</v>
+      </c>
+      <c r="D174" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="26">
+        <v>174</v>
+      </c>
+      <c r="B175" s="26">
+        <v>7</v>
+      </c>
+      <c r="C175" s="26">
+        <v>5</v>
+      </c>
+      <c r="D175" s="26">
+        <v>5</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="26">
+        <v>175</v>
+      </c>
+      <c r="B176" s="26">
+        <v>7</v>
+      </c>
+      <c r="C176" s="26">
+        <v>9</v>
+      </c>
+      <c r="D176" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="26">
+        <v>176</v>
+      </c>
+      <c r="B177" s="26">
+        <v>7</v>
+      </c>
+      <c r="C177" s="26">
+        <v>10</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E177" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="26">
+        <v>177</v>
+      </c>
+      <c r="B178" s="26">
+        <v>7</v>
+      </c>
+      <c r="C178" s="26">
+        <v>11</v>
+      </c>
+      <c r="D178" s="27">
+        <v>44807.343761574077</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="26">
+        <v>178</v>
+      </c>
+      <c r="B179" s="26">
+        <v>7</v>
+      </c>
+      <c r="C179" s="26">
         <v>12</v>
       </c>
-      <c r="E75" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
-        <v>75</v>
-      </c>
-      <c r="B76" s="23">
+      <c r="D179" s="26">
+        <v>7</v>
+      </c>
+      <c r="E179" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="26">
+        <v>179</v>
+      </c>
+      <c r="B180" s="26">
+        <v>7</v>
+      </c>
+      <c r="C180" s="26">
+        <v>13</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="26">
+        <v>180</v>
+      </c>
+      <c r="B181" s="26">
+        <v>8</v>
+      </c>
+      <c r="C181" s="26">
         <v>5</v>
       </c>
-      <c r="C76" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="23">
-        <v>2</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
-        <v>76</v>
-      </c>
-      <c r="B77" s="23">
+      <c r="D181" s="26">
         <v>5</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="23">
-        <v>77</v>
-      </c>
-      <c r="B78" s="23">
+      <c r="E181" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="26">
+        <v>181</v>
+      </c>
+      <c r="B182" s="26">
+        <v>8</v>
+      </c>
+      <c r="C182" s="26">
+        <v>9</v>
+      </c>
+      <c r="D182" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E182" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="26">
+        <v>182</v>
+      </c>
+      <c r="B183" s="26">
+        <v>8</v>
+      </c>
+      <c r="C183" s="26">
+        <v>10</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="26">
+        <v>183</v>
+      </c>
+      <c r="B184" s="26">
+        <v>8</v>
+      </c>
+      <c r="C184" s="26">
+        <v>11</v>
+      </c>
+      <c r="D184" s="27">
+        <v>44808.343761574077</v>
+      </c>
+      <c r="E184" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="26">
+        <v>184</v>
+      </c>
+      <c r="B185" s="26">
+        <v>8</v>
+      </c>
+      <c r="C185" s="26">
+        <v>12</v>
+      </c>
+      <c r="D185" s="26">
+        <v>7</v>
+      </c>
+      <c r="E185" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="26">
+        <v>185</v>
+      </c>
+      <c r="B186" s="26">
+        <v>8</v>
+      </c>
+      <c r="C186" s="26">
+        <v>13</v>
+      </c>
+      <c r="D186" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="26">
+        <v>186</v>
+      </c>
+      <c r="B187" s="26">
+        <v>9</v>
+      </c>
+      <c r="C187" s="26">
         <v>5</v>
       </c>
-      <c r="C78" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="23">
+      <c r="D187" s="26">
+        <v>5</v>
+      </c>
+      <c r="E187" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="26">
+        <v>187</v>
+      </c>
+      <c r="B188" s="26">
+        <v>9</v>
+      </c>
+      <c r="C188" s="26">
+        <v>9</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="26">
+        <v>188</v>
+      </c>
+      <c r="B189" s="26">
+        <v>9</v>
+      </c>
+      <c r="C189" s="26">
+        <v>10</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="26">
+        <v>189</v>
+      </c>
+      <c r="B190" s="26">
+        <v>9</v>
+      </c>
+      <c r="C190" s="26">
+        <v>11</v>
+      </c>
+      <c r="D190" s="27">
+        <v>44809.343761574077</v>
+      </c>
+      <c r="E190" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="26">
+        <v>190</v>
+      </c>
+      <c r="B191" s="26">
+        <v>9</v>
+      </c>
+      <c r="C191" s="26">
+        <v>12</v>
+      </c>
+      <c r="D191" s="26">
         <v>7</v>
       </c>
-      <c r="E78" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="23">
-        <v>78</v>
-      </c>
-      <c r="B79" s="23">
-        <v>6</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="23">
-        <v>2</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
-        <v>79</v>
-      </c>
-      <c r="B80" s="23">
-        <v>6</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
-        <v>80</v>
-      </c>
-      <c r="B81" s="23">
-        <v>6</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="23">
-        <v>18</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
-        <v>81</v>
-      </c>
-      <c r="B82" s="23">
+      <c r="E191" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="26">
+        <v>191</v>
+      </c>
+      <c r="B192" s="26">
+        <v>9</v>
+      </c>
+      <c r="C192" s="26">
+        <v>13</v>
+      </c>
+      <c r="D192" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E192" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="26">
+        <v>192</v>
+      </c>
+      <c r="B193" s="26">
+        <v>10</v>
+      </c>
+      <c r="C193" s="26">
+        <v>5</v>
+      </c>
+      <c r="D193" s="26">
+        <v>5</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="26">
+        <v>193</v>
+      </c>
+      <c r="B194" s="26">
+        <v>10</v>
+      </c>
+      <c r="C194" s="26">
+        <v>9</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="26">
+        <v>194</v>
+      </c>
+      <c r="B195" s="26">
+        <v>10</v>
+      </c>
+      <c r="C195" s="26">
+        <v>10</v>
+      </c>
+      <c r="D195" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="26">
+        <v>195</v>
+      </c>
+      <c r="B196" s="26">
+        <v>10</v>
+      </c>
+      <c r="C196" s="26">
+        <v>11</v>
+      </c>
+      <c r="D196" s="27">
+        <v>44810.343761574077</v>
+      </c>
+      <c r="E196" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="26">
+        <v>196</v>
+      </c>
+      <c r="B197" s="26">
+        <v>10</v>
+      </c>
+      <c r="C197" s="26">
+        <v>12</v>
+      </c>
+      <c r="D197" s="26">
         <v>7</v>
       </c>
-      <c r="C82" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="23">
-        <v>2</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
-        <v>82</v>
-      </c>
-      <c r="B83" s="23">
-        <v>7</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
-        <v>83</v>
-      </c>
-      <c r="B84" s="23">
-        <v>7</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="23">
-        <v>7</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
-        <v>84</v>
-      </c>
-      <c r="B85" s="23">
-        <v>8</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" s="23">
-        <v>3</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="23">
-        <v>85</v>
-      </c>
-      <c r="B86" s="23">
-        <v>8</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="23">
-        <v>86</v>
-      </c>
-      <c r="B87" s="23">
-        <v>8</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" s="23">
-        <v>7</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="23">
-        <v>87</v>
-      </c>
-      <c r="B88" s="23">
-        <v>9</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" s="23">
-        <v>3</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
-        <v>88</v>
-      </c>
-      <c r="B89" s="23">
-        <v>9</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="23">
-        <v>89</v>
-      </c>
-      <c r="B90" s="23">
-        <v>9</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="23">
-        <v>18</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="23">
-        <v>90</v>
-      </c>
-      <c r="B91" s="23">
+      <c r="E197" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="26">
+        <v>197</v>
+      </c>
+      <c r="B198" s="26">
         <v>10</v>
       </c>
-      <c r="C91" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" s="23">
-        <v>3</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="23">
-        <v>91</v>
-      </c>
-      <c r="B92" s="23">
-        <v>10</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="23">
-        <v>92</v>
-      </c>
-      <c r="B93" s="23">
-        <v>10</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="23">
-        <v>18</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="23">
-        <v>93</v>
-      </c>
-      <c r="B94" s="23">
-        <v>11</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" s="23">
-        <v>3</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="23">
-        <v>94</v>
-      </c>
-      <c r="B95" s="23">
-        <v>11</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
-        <v>95</v>
-      </c>
-      <c r="B96" s="23">
-        <v>11</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" s="23">
-        <v>15</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="23">
-        <v>96</v>
-      </c>
-      <c r="B97" s="23">
-        <v>12</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" s="23">
-        <v>3</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="23">
-        <v>97</v>
-      </c>
-      <c r="B98" s="23">
-        <v>12</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="23">
-        <v>98</v>
-      </c>
-      <c r="B99" s="23">
-        <v>12</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D99" s="23">
-        <v>7</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="23">
-        <v>99</v>
-      </c>
-      <c r="B100" s="23">
+      <c r="C198" s="26">
         <v>13</v>
       </c>
-      <c r="C100" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D100" s="23">
-        <v>3</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="23">
-        <v>100</v>
-      </c>
-      <c r="B101" s="23">
-        <v>13</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="23">
-        <v>101</v>
-      </c>
-      <c r="B102" s="23">
-        <v>13</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D102" s="23">
-        <v>22</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="24">
-        <v>102</v>
-      </c>
-      <c r="B103" s="24">
-        <v>1</v>
-      </c>
-      <c r="C103" s="24">
-        <v>2</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="24">
-        <v>103</v>
-      </c>
-      <c r="B104" s="24">
-        <v>1</v>
-      </c>
-      <c r="C104" s="24">
-        <v>3</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="24">
-        <v>104</v>
-      </c>
-      <c r="B105" s="24">
-        <v>1</v>
-      </c>
-      <c r="C105" s="24">
-        <v>4</v>
-      </c>
-      <c r="D105" s="25">
-        <v>44866</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="24">
-        <v>105</v>
-      </c>
-      <c r="B106" s="24">
-        <v>2</v>
-      </c>
-      <c r="C106" s="24">
-        <v>2</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="24">
-        <v>106</v>
-      </c>
-      <c r="B107" s="24">
-        <v>2</v>
-      </c>
-      <c r="C107" s="24">
-        <v>3</v>
-      </c>
-      <c r="D107" s="24">
-        <v>12345</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="24">
-        <v>107</v>
-      </c>
-      <c r="B108" s="24">
-        <v>2</v>
-      </c>
-      <c r="C108" s="24">
-        <v>4</v>
-      </c>
-      <c r="D108" s="25">
-        <v>44855</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="24">
-        <v>108</v>
-      </c>
-      <c r="B109" s="24">
-        <v>3</v>
-      </c>
-      <c r="C109" s="24">
-        <v>2</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="24">
-        <v>109</v>
-      </c>
-      <c r="B110" s="24">
-        <v>3</v>
-      </c>
-      <c r="C110" s="24">
-        <v>3</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="24">
-        <v>110</v>
-      </c>
-      <c r="B111" s="24">
-        <v>3</v>
-      </c>
-      <c r="C111" s="24">
-        <v>4</v>
-      </c>
-      <c r="D111" s="25">
-        <v>44867</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="24">
-        <v>111</v>
-      </c>
-      <c r="B112" s="24">
-        <v>4</v>
-      </c>
-      <c r="C112" s="24">
-        <v>2</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E112" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="24">
-        <v>112</v>
-      </c>
-      <c r="B113" s="24">
-        <v>4</v>
-      </c>
-      <c r="C113" s="24">
-        <v>3</v>
-      </c>
-      <c r="D113" s="24">
-        <v>99999</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="24">
-        <v>113</v>
-      </c>
-      <c r="B114" s="24">
-        <v>4</v>
-      </c>
-      <c r="C114" s="24">
-        <v>4</v>
-      </c>
-      <c r="D114" s="25">
-        <v>44852</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="24">
-        <v>114</v>
-      </c>
-      <c r="B115" s="24">
-        <v>5</v>
-      </c>
-      <c r="C115" s="24">
-        <v>2</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="24">
-        <v>115</v>
-      </c>
-      <c r="B116" s="24">
-        <v>5</v>
-      </c>
-      <c r="C116" s="24">
-        <v>3</v>
-      </c>
-      <c r="D116" s="24">
-        <v>33333</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="24">
-        <v>116</v>
-      </c>
-      <c r="B117" s="24">
-        <v>5</v>
-      </c>
-      <c r="C117" s="24">
-        <v>4</v>
-      </c>
-      <c r="D117" s="25">
-        <v>44853</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="24">
-        <v>117</v>
-      </c>
-      <c r="B118" s="24">
-        <v>6</v>
-      </c>
-      <c r="C118" s="24">
-        <v>2</v>
-      </c>
-      <c r="D118" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E118" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="24">
-        <v>118</v>
-      </c>
-      <c r="B119" s="24">
-        <v>6</v>
-      </c>
-      <c r="C119" s="24">
-        <v>3</v>
-      </c>
-      <c r="D119" s="24">
-        <v>44444</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="24">
-        <v>119</v>
-      </c>
-      <c r="B120" s="24">
-        <v>6</v>
-      </c>
-      <c r="C120" s="24">
-        <v>4</v>
-      </c>
-      <c r="D120" s="25">
-        <v>44854</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="24">
-        <v>120</v>
-      </c>
-      <c r="B121" s="24">
-        <v>7</v>
-      </c>
-      <c r="C121" s="24">
-        <v>2</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="24">
-        <v>121</v>
-      </c>
-      <c r="B122" s="24">
-        <v>7</v>
-      </c>
-      <c r="C122" s="24">
-        <v>3</v>
-      </c>
-      <c r="D122" s="24">
-        <v>55555</v>
-      </c>
-      <c r="E122" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="24">
-        <v>122</v>
-      </c>
-      <c r="B123" s="24">
-        <v>7</v>
-      </c>
-      <c r="C123" s="24">
-        <v>4</v>
-      </c>
-      <c r="D123" s="25">
-        <v>44855</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="24">
-        <v>123</v>
-      </c>
-      <c r="B124" s="24">
-        <v>8</v>
-      </c>
-      <c r="C124" s="24">
-        <v>2</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="24">
-        <v>124</v>
-      </c>
-      <c r="B125" s="24">
-        <v>8</v>
-      </c>
-      <c r="C125" s="24">
-        <v>3</v>
-      </c>
-      <c r="D125" s="24">
-        <v>66666</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="24">
-        <v>125</v>
-      </c>
-      <c r="B126" s="24">
-        <v>8</v>
-      </c>
-      <c r="C126" s="24">
-        <v>4</v>
-      </c>
-      <c r="D126" s="25">
-        <v>44856</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="26">
-        <v>126</v>
-      </c>
-      <c r="B127" s="26">
-        <v>1</v>
-      </c>
-      <c r="C127" s="26">
-        <v>6</v>
-      </c>
-      <c r="D127" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="26">
-        <v>127</v>
-      </c>
-      <c r="B128" s="26">
-        <v>1</v>
-      </c>
-      <c r="C128" s="26">
-        <v>7</v>
-      </c>
-      <c r="D128" s="26">
-        <v>0</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="26">
-        <v>128</v>
-      </c>
-      <c r="B129" s="26">
-        <v>2</v>
-      </c>
-      <c r="C129" s="26">
-        <v>6</v>
-      </c>
-      <c r="D129" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="26">
+      <c r="D198" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="26">
-        <v>2</v>
-      </c>
-      <c r="C130" s="26">
-        <v>7</v>
-      </c>
-      <c r="D130" s="26">
-        <v>1</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="26">
-        <v>130</v>
-      </c>
-      <c r="B131" s="26">
-        <v>3</v>
-      </c>
-      <c r="C131" s="26">
-        <v>6</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="26">
-        <v>131</v>
-      </c>
-      <c r="B132" s="26">
-        <v>3</v>
-      </c>
-      <c r="C132" s="26">
-        <v>7</v>
-      </c>
-      <c r="D132" s="26">
-        <v>1</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="26">
-        <v>132</v>
-      </c>
-      <c r="B133" s="26">
-        <v>4</v>
-      </c>
-      <c r="C133" s="26">
-        <v>6</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E133" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="26">
-        <v>133</v>
-      </c>
-      <c r="B134" s="26">
-        <v>4</v>
-      </c>
-      <c r="C134" s="26">
-        <v>7</v>
-      </c>
-      <c r="D134" s="26">
-        <v>2</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="26">
-        <v>134</v>
-      </c>
-      <c r="B135" s="26">
-        <v>5</v>
-      </c>
-      <c r="C135" s="26">
-        <v>6</v>
-      </c>
-      <c r="D135" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E135" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="26">
-        <v>135</v>
-      </c>
-      <c r="B136" s="26">
-        <v>5</v>
-      </c>
-      <c r="C136" s="26">
-        <v>7</v>
-      </c>
-      <c r="D136" s="26">
-        <v>4</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="26">
-        <v>136</v>
-      </c>
-      <c r="B137" s="26">
-        <v>6</v>
-      </c>
-      <c r="C137" s="26">
-        <v>6</v>
-      </c>
-      <c r="D137" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="26">
-        <v>137</v>
-      </c>
-      <c r="B138" s="26">
-        <v>6</v>
-      </c>
-      <c r="C138" s="26">
-        <v>7</v>
-      </c>
-      <c r="D138" s="26">
-        <v>4</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="27">
-        <v>138</v>
-      </c>
-      <c r="B139" s="27">
-        <v>1</v>
-      </c>
-      <c r="C139" s="27">
-        <v>5</v>
-      </c>
-      <c r="D139" s="27">
-        <v>1</v>
-      </c>
-      <c r="E139" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="27">
-        <v>139</v>
-      </c>
-      <c r="B140" s="27">
-        <v>1</v>
-      </c>
-      <c r="C140" s="27">
-        <v>9</v>
-      </c>
-      <c r="D140" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E140" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="27">
-        <v>140</v>
-      </c>
-      <c r="B141" s="27">
-        <v>1</v>
-      </c>
-      <c r="C141" s="27">
-        <v>10</v>
-      </c>
-      <c r="D141" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E141" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="27">
-        <v>141</v>
-      </c>
-      <c r="B142" s="27">
-        <v>1</v>
-      </c>
-      <c r="C142" s="27">
-        <v>11</v>
-      </c>
-      <c r="D142" s="28">
-        <v>44855.649895833332</v>
-      </c>
-      <c r="E142" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="27">
-        <v>142</v>
-      </c>
-      <c r="B143" s="27">
-        <v>1</v>
-      </c>
-      <c r="C143" s="27">
-        <v>12</v>
-      </c>
-      <c r="D143" s="27">
-        <v>2</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="27">
-        <v>143</v>
-      </c>
-      <c r="B144" s="27">
-        <v>1</v>
-      </c>
-      <c r="C144" s="27">
-        <v>13</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E144" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="27">
-        <v>144</v>
-      </c>
-      <c r="B145" s="27">
-        <v>2</v>
-      </c>
-      <c r="C145" s="27">
-        <v>5</v>
-      </c>
-      <c r="D145" s="27">
-        <v>2</v>
-      </c>
-      <c r="E145" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="27">
-        <v>145</v>
-      </c>
-      <c r="B146" s="27">
-        <v>2</v>
-      </c>
-      <c r="C146" s="27">
-        <v>9</v>
-      </c>
-      <c r="D146" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E146" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="27">
-        <v>146</v>
-      </c>
-      <c r="B147" s="27">
-        <v>2</v>
-      </c>
-      <c r="C147" s="27">
-        <v>10</v>
-      </c>
-      <c r="D147" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E147" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="27">
-        <v>147</v>
-      </c>
-      <c r="B148" s="27">
-        <v>2</v>
-      </c>
-      <c r="C148" s="27">
-        <v>11</v>
-      </c>
-      <c r="D148" s="28">
-        <v>44846.473043981481</v>
-      </c>
-      <c r="E148" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="27">
-        <v>148</v>
-      </c>
-      <c r="B149" s="27">
-        <v>2</v>
-      </c>
-      <c r="C149" s="27">
-        <v>12</v>
-      </c>
-      <c r="D149" s="27">
-        <v>4</v>
-      </c>
-      <c r="E149" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="27">
-        <v>149</v>
-      </c>
-      <c r="B150" s="27">
-        <v>2</v>
-      </c>
-      <c r="C150" s="27">
-        <v>13</v>
-      </c>
-      <c r="D150" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E150" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="27">
-        <v>150</v>
-      </c>
-      <c r="B151" s="27">
-        <v>3</v>
-      </c>
-      <c r="C151" s="27">
-        <v>5</v>
-      </c>
-      <c r="D151" s="27">
-        <v>3</v>
-      </c>
-      <c r="E151" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="27">
-        <v>151</v>
-      </c>
-      <c r="B152" s="27">
-        <v>3</v>
-      </c>
-      <c r="C152" s="27">
-        <v>9</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E152" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="27">
-        <v>152</v>
-      </c>
-      <c r="B153" s="27">
-        <v>3</v>
-      </c>
-      <c r="C153" s="27">
-        <v>10</v>
-      </c>
-      <c r="D153" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E153" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="27">
-        <v>153</v>
-      </c>
-      <c r="B154" s="27">
-        <v>3</v>
-      </c>
-      <c r="C154" s="27">
-        <v>11</v>
-      </c>
-      <c r="D154" s="28">
-        <v>44880.846076388887</v>
-      </c>
-      <c r="E154" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="27">
-        <v>154</v>
-      </c>
-      <c r="B155" s="27">
-        <v>3</v>
-      </c>
-      <c r="C155" s="27">
-        <v>12</v>
-      </c>
-      <c r="D155" s="27">
-        <v>5</v>
-      </c>
-      <c r="E155" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="27">
-        <v>155</v>
-      </c>
-      <c r="B156" s="27">
-        <v>3</v>
-      </c>
-      <c r="C156" s="27">
-        <v>13</v>
-      </c>
-      <c r="D156" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E156" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="27">
-        <v>156</v>
-      </c>
-      <c r="B157" s="27">
-        <v>4</v>
-      </c>
-      <c r="C157" s="27">
-        <v>5</v>
-      </c>
-      <c r="D157" s="27">
-        <v>4</v>
-      </c>
-      <c r="E157" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="27">
-        <v>157</v>
-      </c>
-      <c r="B158" s="27">
-        <v>4</v>
-      </c>
-      <c r="C158" s="27">
-        <v>9</v>
-      </c>
-      <c r="D158" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E158" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="27">
-        <v>158</v>
-      </c>
-      <c r="B159" s="27">
-        <v>4</v>
-      </c>
-      <c r="C159" s="27">
-        <v>10</v>
-      </c>
-      <c r="D159" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E159" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="27">
-        <v>159</v>
-      </c>
-      <c r="B160" s="27">
-        <v>4</v>
-      </c>
-      <c r="C160" s="27">
-        <v>11</v>
-      </c>
-      <c r="D160" s="28">
-        <v>44915.828148148146</v>
-      </c>
-      <c r="E160" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="27">
-        <v>160</v>
-      </c>
-      <c r="B161" s="27">
-        <v>4</v>
-      </c>
-      <c r="C161" s="27">
-        <v>12</v>
-      </c>
-      <c r="D161" s="27">
-        <v>6</v>
-      </c>
-      <c r="E161" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="27">
-        <v>161</v>
-      </c>
-      <c r="B162" s="27">
-        <v>4</v>
-      </c>
-      <c r="C162" s="27">
-        <v>13</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E162" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="27">
-        <v>162</v>
-      </c>
-      <c r="B163" s="27">
-        <v>5</v>
-      </c>
-      <c r="C163" s="27">
-        <v>5</v>
-      </c>
-      <c r="D163" s="27">
-        <v>5</v>
-      </c>
-      <c r="E163" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="27">
-        <v>163</v>
-      </c>
-      <c r="B164" s="27">
-        <v>5</v>
-      </c>
-      <c r="C164" s="27">
-        <v>9</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E164" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="27">
-        <v>164</v>
-      </c>
-      <c r="B165" s="27">
-        <v>5</v>
-      </c>
-      <c r="C165" s="27">
-        <v>10</v>
-      </c>
-      <c r="D165" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E165" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="27">
-        <v>165</v>
-      </c>
-      <c r="B166" s="27">
-        <v>5</v>
-      </c>
-      <c r="C166" s="27">
-        <v>11</v>
-      </c>
-      <c r="D166" s="28">
-        <v>44806.343761574077</v>
-      </c>
-      <c r="E166" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="27">
-        <v>166</v>
-      </c>
-      <c r="B167" s="27">
-        <v>5</v>
-      </c>
-      <c r="C167" s="27">
-        <v>12</v>
-      </c>
-      <c r="D167" s="27">
-        <v>7</v>
-      </c>
-      <c r="E167" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="27">
-        <v>167</v>
-      </c>
-      <c r="B168" s="27">
-        <v>5</v>
-      </c>
-      <c r="C168" s="27">
-        <v>13</v>
-      </c>
-      <c r="D168" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E168" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="27">
-        <v>168</v>
-      </c>
-      <c r="B169" s="27">
-        <v>6</v>
-      </c>
-      <c r="C169" s="27">
-        <v>5</v>
-      </c>
-      <c r="D169" s="27">
-        <v>6</v>
-      </c>
-      <c r="E169" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="27">
-        <v>169</v>
-      </c>
-      <c r="B170" s="27">
-        <v>6</v>
-      </c>
-      <c r="C170" s="27">
-        <v>9</v>
-      </c>
-      <c r="D170" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E170" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="27">
-        <v>170</v>
-      </c>
-      <c r="B171" s="27">
-        <v>6</v>
-      </c>
-      <c r="C171" s="27">
-        <v>10</v>
-      </c>
-      <c r="D171" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E171" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="27">
-        <v>171</v>
-      </c>
-      <c r="B172" s="27">
-        <v>6</v>
-      </c>
-      <c r="C172" s="27">
-        <v>11</v>
-      </c>
-      <c r="D172" s="28">
-        <v>44730.087685185186</v>
-      </c>
-      <c r="E172" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="27">
-        <v>172</v>
-      </c>
-      <c r="B173" s="27">
-        <v>6</v>
-      </c>
-      <c r="C173" s="27">
-        <v>12</v>
-      </c>
-      <c r="D173" s="27">
-        <v>8</v>
-      </c>
-      <c r="E173" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="27">
-        <v>173</v>
-      </c>
-      <c r="B174" s="27">
-        <v>6</v>
-      </c>
-      <c r="C174" s="27">
-        <v>13</v>
-      </c>
-      <c r="D174" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E174" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="27">
-        <v>174</v>
-      </c>
-      <c r="B175" s="27">
-        <v>7</v>
-      </c>
-      <c r="C175" s="27">
-        <v>5</v>
-      </c>
-      <c r="D175" s="27">
-        <v>5</v>
-      </c>
-      <c r="E175" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="27">
-        <v>175</v>
-      </c>
-      <c r="B176" s="27">
-        <v>7</v>
-      </c>
-      <c r="C176" s="27">
-        <v>9</v>
-      </c>
-      <c r="D176" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E176" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="27">
-        <v>176</v>
-      </c>
-      <c r="B177" s="27">
-        <v>7</v>
-      </c>
-      <c r="C177" s="27">
-        <v>10</v>
-      </c>
-      <c r="D177" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E177" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="27">
-        <v>177</v>
-      </c>
-      <c r="B178" s="27">
-        <v>7</v>
-      </c>
-      <c r="C178" s="27">
-        <v>11</v>
-      </c>
-      <c r="D178" s="28">
-        <v>44807.343761574077</v>
-      </c>
-      <c r="E178" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="27">
-        <v>178</v>
-      </c>
-      <c r="B179" s="27">
-        <v>7</v>
-      </c>
-      <c r="C179" s="27">
-        <v>12</v>
-      </c>
-      <c r="D179" s="27">
-        <v>7</v>
-      </c>
-      <c r="E179" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="27">
-        <v>179</v>
-      </c>
-      <c r="B180" s="27">
-        <v>7</v>
-      </c>
-      <c r="C180" s="27">
-        <v>13</v>
-      </c>
-      <c r="D180" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E180" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="27">
-        <v>180</v>
-      </c>
-      <c r="B181" s="27">
-        <v>8</v>
-      </c>
-      <c r="C181" s="27">
-        <v>5</v>
-      </c>
-      <c r="D181" s="27">
-        <v>5</v>
-      </c>
-      <c r="E181" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="27">
-        <v>181</v>
-      </c>
-      <c r="B182" s="27">
-        <v>8</v>
-      </c>
-      <c r="C182" s="27">
-        <v>9</v>
-      </c>
-      <c r="D182" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E182" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="27">
-        <v>182</v>
-      </c>
-      <c r="B183" s="27">
-        <v>8</v>
-      </c>
-      <c r="C183" s="27">
-        <v>10</v>
-      </c>
-      <c r="D183" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E183" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="27">
-        <v>183</v>
-      </c>
-      <c r="B184" s="27">
-        <v>8</v>
-      </c>
-      <c r="C184" s="27">
-        <v>11</v>
-      </c>
-      <c r="D184" s="28">
-        <v>44808.343761574077</v>
-      </c>
-      <c r="E184" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="27">
-        <v>184</v>
-      </c>
-      <c r="B185" s="27">
-        <v>8</v>
-      </c>
-      <c r="C185" s="27">
-        <v>12</v>
-      </c>
-      <c r="D185" s="27">
-        <v>7</v>
-      </c>
-      <c r="E185" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="27">
-        <v>185</v>
-      </c>
-      <c r="B186" s="27">
-        <v>8</v>
-      </c>
-      <c r="C186" s="27">
-        <v>13</v>
-      </c>
-      <c r="D186" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E186" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="27">
-        <v>186</v>
-      </c>
-      <c r="B187" s="27">
-        <v>9</v>
-      </c>
-      <c r="C187" s="27">
-        <v>5</v>
-      </c>
-      <c r="D187" s="27">
-        <v>5</v>
-      </c>
-      <c r="E187" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="27">
-        <v>187</v>
-      </c>
-      <c r="B188" s="27">
-        <v>9</v>
-      </c>
-      <c r="C188" s="27">
-        <v>9</v>
-      </c>
-      <c r="D188" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E188" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="27">
-        <v>188</v>
-      </c>
-      <c r="B189" s="27">
-        <v>9</v>
-      </c>
-      <c r="C189" s="27">
-        <v>10</v>
-      </c>
-      <c r="D189" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E189" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="27">
-        <v>189</v>
-      </c>
-      <c r="B190" s="27">
-        <v>9</v>
-      </c>
-      <c r="C190" s="27">
-        <v>11</v>
-      </c>
-      <c r="D190" s="28">
-        <v>44809.343761574077</v>
-      </c>
-      <c r="E190" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="27">
-        <v>190</v>
-      </c>
-      <c r="B191" s="27">
-        <v>9</v>
-      </c>
-      <c r="C191" s="27">
-        <v>12</v>
-      </c>
-      <c r="D191" s="27">
-        <v>7</v>
-      </c>
-      <c r="E191" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="27">
-        <v>191</v>
-      </c>
-      <c r="B192" s="27">
-        <v>9</v>
-      </c>
-      <c r="C192" s="27">
-        <v>13</v>
-      </c>
-      <c r="D192" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E192" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="27">
-        <v>192</v>
-      </c>
-      <c r="B193" s="27">
-        <v>10</v>
-      </c>
-      <c r="C193" s="27">
-        <v>5</v>
-      </c>
-      <c r="D193" s="27">
-        <v>5</v>
-      </c>
-      <c r="E193" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="27">
-        <v>193</v>
-      </c>
-      <c r="B194" s="27">
-        <v>10</v>
-      </c>
-      <c r="C194" s="27">
-        <v>9</v>
-      </c>
-      <c r="D194" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E194" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="27">
-        <v>194</v>
-      </c>
-      <c r="B195" s="27">
-        <v>10</v>
-      </c>
-      <c r="C195" s="27">
-        <v>10</v>
-      </c>
-      <c r="D195" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E195" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="27">
-        <v>195</v>
-      </c>
-      <c r="B196" s="27">
-        <v>10</v>
-      </c>
-      <c r="C196" s="27">
-        <v>11</v>
-      </c>
-      <c r="D196" s="28">
-        <v>44810.343761574077</v>
-      </c>
-      <c r="E196" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="27">
-        <v>196</v>
-      </c>
-      <c r="B197" s="27">
-        <v>10</v>
-      </c>
-      <c r="C197" s="27">
-        <v>12</v>
-      </c>
-      <c r="D197" s="27">
-        <v>7</v>
-      </c>
-      <c r="E197" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="27">
-        <v>197</v>
-      </c>
-      <c r="B198" s="27">
-        <v>10</v>
-      </c>
-      <c r="C198" s="27">
-        <v>13</v>
-      </c>
-      <c r="D198" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E198" s="27" t="s">
+      <c r="E198" s="26" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5444,310 +5445,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>3</v>
       </c>
     </row>
@@ -5771,42 +5772,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5830,26 +5831,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5977,7 +5978,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5991,7 +5992,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4">
@@ -6005,7 +6006,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5">
@@ -6019,7 +6020,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="B6">
@@ -6033,7 +6034,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7">
@@ -6047,7 +6048,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8">
@@ -6061,7 +6062,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="B9">
@@ -6075,7 +6076,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="B10">
@@ -6089,7 +6090,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="B11">
@@ -6103,7 +6104,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="B12">
@@ -6117,7 +6118,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13">
@@ -6131,7 +6132,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="B14">
@@ -6145,7 +6146,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="B15">
@@ -6167,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B49D1D-7C37-4EDE-87E4-4740DD25808D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6216,7 +6217,7 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="30">
         <v>44866</v>
       </c>
     </row>
@@ -6230,7 +6231,7 @@
       <c r="C4">
         <v>12345</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="30">
         <v>44855</v>
       </c>
     </row>
@@ -6244,7 +6245,7 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="30">
         <v>44867</v>
       </c>
     </row>
@@ -6258,7 +6259,7 @@
       <c r="C6">
         <v>99999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="30">
         <v>44852</v>
       </c>
     </row>
@@ -6272,7 +6273,7 @@
       <c r="C7">
         <v>33333</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="30">
         <v>44853</v>
       </c>
     </row>
@@ -6286,7 +6287,7 @@
       <c r="C8">
         <v>44444</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="30">
         <v>44854</v>
       </c>
     </row>
@@ -6300,7 +6301,7 @@
       <c r="C9">
         <v>55555</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="30">
         <v>44855</v>
       </c>
     </row>
@@ -6314,13 +6315,14 @@
       <c r="C10">
         <v>66666</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="30">
         <v>44856</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
